--- a/public/Data/coordenadas comunas cali.xlsx
+++ b/public/Data/coordenadas comunas cali.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\TesisApp 1.2\public\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARMART\Desktop\TesisApp 1.2\TesisApp 1.2\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28807B0F-0AF6-4E62-8430-858F30225172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB6FFEF-1C71-4F6D-A960-FA709E95BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,17 @@
     <sheet name="monumentos" sheetId="7" r:id="rId7"/>
     <sheet name="universidades" sheetId="8" r:id="rId8"/>
     <sheet name="Fotomultas" sheetId="9" r:id="rId9"/>
+    <sheet name="estaciones mio" sheetId="10" r:id="rId10"/>
+    <sheet name="estaciones electricas" sheetId="11" r:id="rId11"/>
+    <sheet name="unidades deportivas" sheetId="12" r:id="rId12"/>
+    <sheet name="gyms" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="1086">
   <si>
     <t>nombre</t>
   </si>
@@ -3034,6 +3038,258 @@
   </si>
   <si>
     <t>estrato moda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estacion universidades </t>
+  </si>
+  <si>
+    <t>estacion univalle</t>
+  </si>
+  <si>
+    <t>estacion buitrera</t>
+  </si>
+  <si>
+    <t>estacion melendez</t>
+  </si>
+  <si>
+    <t>estacion capri</t>
+  </si>
+  <si>
+    <t>estacion refugio</t>
+  </si>
+  <si>
+    <t>estacion caldas</t>
+  </si>
+  <si>
+    <t>estacion pampalinda</t>
+  </si>
+  <si>
+    <t>estacion plaza de toros</t>
+  </si>
+  <si>
+    <t>estacion unidad deportiva</t>
+  </si>
+  <si>
+    <t>estacion lido</t>
+  </si>
+  <si>
+    <t>estacion tequendama</t>
+  </si>
+  <si>
+    <t>estacion estadio</t>
+  </si>
+  <si>
+    <t>estacion manzada del saber</t>
+  </si>
+  <si>
+    <t>estacion santa librada</t>
+  </si>
+  <si>
+    <t>estacion san bosco</t>
+  </si>
+  <si>
+    <t>estacion san pascual</t>
+  </si>
+  <si>
+    <t>estacion floresta</t>
+  </si>
+  <si>
+    <t>estacion belarcazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estacion atanasio girardot </t>
+  </si>
+  <si>
+    <t>estacion chapinero</t>
+  </si>
+  <si>
+    <t>estacion villacolombia</t>
+  </si>
+  <si>
+    <t>estacion el trebol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminal simon bolivar </t>
+  </si>
+  <si>
+    <t>estacion cañaverales</t>
+  </si>
+  <si>
+    <t>estacion mariano ramoz</t>
+  </si>
+  <si>
+    <t>terminal calipso</t>
+  </si>
+  <si>
+    <t>estacion conquistadores</t>
+  </si>
+  <si>
+    <t>estacion villanueva</t>
+  </si>
+  <si>
+    <t>estacion santa monica</t>
+  </si>
+  <si>
+    <t>estacion primitivo</t>
+  </si>
+  <si>
+    <t>estacion cien palos</t>
+  </si>
+  <si>
+    <t>estacion fray damian</t>
+  </si>
+  <si>
+    <t>estacion santa rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estacion centro </t>
+  </si>
+  <si>
+    <t>estacion plaza de caicedo</t>
+  </si>
+  <si>
+    <t>estacion la hermita</t>
+  </si>
+  <si>
+    <t>estacion torre de cali</t>
+  </si>
+  <si>
+    <t>estacion san nicolas</t>
+  </si>
+  <si>
+    <t>estacion piloto</t>
+  </si>
+  <si>
+    <t>estacion versalles</t>
+  </si>
+  <si>
+    <t>estacion las americas</t>
+  </si>
+  <si>
+    <t>estacion prados del norte</t>
+  </si>
+  <si>
+    <t>estacion vipasa</t>
+  </si>
+  <si>
+    <t>estacion los alamos</t>
+  </si>
+  <si>
+    <t>terminal menga</t>
+  </si>
+  <si>
+    <t>terminal paso del comercio</t>
+  </si>
+  <si>
+    <t>estacion chiminangos</t>
+  </si>
+  <si>
+    <t>estacion flora industrual</t>
+  </si>
+  <si>
+    <t>estacion salomia</t>
+  </si>
+  <si>
+    <t>estacion popular</t>
+  </si>
+  <si>
+    <t>estacion manzanares</t>
+  </si>
+  <si>
+    <t>estacio fatima</t>
+  </si>
+  <si>
+    <t>éxito la flora</t>
+  </si>
+  <si>
+    <t>Centro Comercial World Trade Center (Pacific Mall)</t>
+  </si>
+  <si>
+    <t>Telefónica Versalles de EMCALI energicar</t>
+  </si>
+  <si>
+    <t>Sura Centenario</t>
+  </si>
+  <si>
+    <t>Éxito San Fernando</t>
+  </si>
+  <si>
+    <t>Carulla Parque del Perro</t>
+  </si>
+  <si>
+    <t>Renault Automotora Norte y Sur - Chipichape</t>
+  </si>
+  <si>
+    <t> Complejo Administrativo Municipal (CAM)</t>
+  </si>
+  <si>
+    <t> la Secretaría de Cultura</t>
+  </si>
+  <si>
+    <t>plazoleta Jairo Varela</t>
+  </si>
+  <si>
+    <t>estadio Pascual Guerrero.</t>
+  </si>
+  <si>
+    <t>Gimnasio de El Pueblo</t>
+  </si>
+  <si>
+    <t>Velódromo Alcides Nieto Patiño</t>
+  </si>
+  <si>
+    <t>Pista de bicicross William Alexánder Jiménez</t>
+  </si>
+  <si>
+    <t>Coliseo de Bolo</t>
+  </si>
+  <si>
+    <t>Patinódromo Mundialista</t>
+  </si>
+  <si>
+    <t>Rocódromo Mundialista</t>
+  </si>
+  <si>
+    <t>Piscinas Alberto Galindo</t>
+  </si>
+  <si>
+    <t>Coliseo Evangelista Mora</t>
+  </si>
+  <si>
+    <t>Estadio Pascual Guerrero</t>
+  </si>
+  <si>
+    <t>Piscinas Hernando Botero O'byrne</t>
+  </si>
+  <si>
+    <t>Estadio de Atletismo Pedro Grajales</t>
+  </si>
+  <si>
+    <t>Estadio de Tenis Álvaro Carlos Jordán</t>
+  </si>
+  <si>
+    <t>Coliseo Miguel Calero</t>
+  </si>
+  <si>
+    <t>Diamante de Béisbol</t>
+  </si>
+  <si>
+    <t>Arena Mundialista</t>
+  </si>
+  <si>
+    <t>Salón de karate do ‘Hirochi Taninokuchi’</t>
+  </si>
+  <si>
+    <t>Coliseo de Combate María Isabel Urrutia</t>
+  </si>
+  <si>
+    <t>Monumento a la Bicicleta</t>
+  </si>
+  <si>
+    <t>monumento arbol de la vida</t>
+  </si>
+  <si>
+    <t>monumento explocion 7 de agosto</t>
   </si>
 </sst>
 </file>
@@ -3116,7 +3372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3190,6 +3446,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3499,17 +3756,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.54296875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3526,7 +3783,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3543,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3560,7 +3817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3577,7 +3834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3594,7 +3851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3611,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3628,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3645,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3662,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3679,7 +3936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3696,7 +3953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3714,7 +3971,7 @@
       </c>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3732,7 +3989,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3749,7 +4006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3766,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3783,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3800,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3817,7 +4074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3834,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3851,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3868,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3885,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3900,6 +4157,1026 @@
       </c>
       <c r="E23" s="6">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EAA579-09EB-4E62-98BE-C639D5EEFC8C}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.3670438191604002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-76.529207657118206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.3708737019378501</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-76.536865050635797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.3725681537161698</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-76.540020699185604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.3770932107898202</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-76.542802226156894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3.3873795905729698</v>
+      </c>
+      <c r="C6" s="27">
+        <v>-76.544874310082093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3.3937672405804</v>
+      </c>
+      <c r="C7" s="27">
+        <v>-76.545930239274895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.3986720693592898</v>
+      </c>
+      <c r="C8" s="27">
+        <v>-76.546476695852405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3.40376434201269</v>
+      </c>
+      <c r="C9" s="27">
+        <v>-76.546837928878901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3.4094870581323402</v>
+      </c>
+      <c r="C10" s="27">
+        <v>-76.547419414256595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.4147030722516201</v>
+      </c>
+      <c r="C11" s="27">
+        <v>-76.548333853848604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3.4190736598220099</v>
+      </c>
+      <c r="C12" s="27">
+        <v>-76.548327686379295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3.4232231539112901</v>
+      </c>
+      <c r="C13" s="27">
+        <v>-76.547100287024094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3.4320395618090598</v>
+      </c>
+      <c r="C14" s="27">
+        <v>-76.543031853262505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3.4395271604638502</v>
+      </c>
+      <c r="C15" s="27">
+        <v>-76.537284447418102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.4347090693851299</v>
+      </c>
+      <c r="C16" s="27">
+        <v>-76.541149039406605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3.4423352625949302</v>
+      </c>
+      <c r="C17" s="27">
+        <v>-76.532316339672704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3.44263620490154</v>
+      </c>
+      <c r="C18" s="27">
+        <v>-76.526923096736596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3.4441410338212899</v>
+      </c>
+      <c r="C19" s="27">
+        <v>-76.520742609499493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3.4452698465406502</v>
+      </c>
+      <c r="C20" s="27">
+        <v>-76.514611776129897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3.4448214131711401</v>
+      </c>
+      <c r="C21" s="27">
+        <v>-76.508318094982201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3.4442967227690802</v>
+      </c>
+      <c r="C22" s="27">
+        <v>-76.502280296119693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3.4438568956850801</v>
+      </c>
+      <c r="C23" s="27">
+        <v>-76.498897108462501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3.4435251308414898</v>
+      </c>
+      <c r="C24" s="27">
+        <v>-76.495951061206299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3.39751746053782</v>
+      </c>
+      <c r="C25" s="27">
+        <v>-76.523708816219397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3.40193226626831</v>
+      </c>
+      <c r="C26" s="27">
+        <v>-76.523015521584497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3.40687523328763</v>
+      </c>
+      <c r="C27" s="27">
+        <v>-76.521165445065805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3.4272419808207499</v>
+      </c>
+      <c r="C28" s="27">
+        <v>-76.5000338772861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B29" s="8">
+        <v>3.4271981875326101</v>
+      </c>
+      <c r="C29" s="27">
+        <v>-76.505411370631506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3.4321757630420802</v>
+      </c>
+      <c r="C30" s="27">
+        <v>-76.510337819591996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3.43469401989368</v>
+      </c>
+      <c r="C31" s="27">
+        <v>-76.514008959819805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3.4373560505382899</v>
+      </c>
+      <c r="C32" s="27">
+        <v>-76.517668337482505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3.43986178517408</v>
+      </c>
+      <c r="C33" s="27">
+        <v>-76.522738489899297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3.4436215162900701</v>
+      </c>
+      <c r="C34" s="27">
+        <v>-76.528824379676806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3.4473583258961602</v>
+      </c>
+      <c r="C35" s="27">
+        <v>-76.529784231102695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3.4481376514954198</v>
+      </c>
+      <c r="C36" s="27">
+        <v>-76.529997599043597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3.4524919685292002</v>
+      </c>
+      <c r="C37" s="27">
+        <v>-76.5313417458553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B38" s="8">
+        <v>3.4535837034244699</v>
+      </c>
+      <c r="C38" s="27">
+        <v>-76.531650304369705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B39" s="8">
+        <v>3.4568524810649701</v>
+      </c>
+      <c r="C39" s="27">
+        <v>-76.530245665655997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B40" s="8">
+        <v>3.45855086986144</v>
+      </c>
+      <c r="C40" s="27">
+        <v>-76.525709182940702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B41" s="8">
+        <v>3.46009288552627</v>
+      </c>
+      <c r="C41" s="27">
+        <v>-76.522487199496794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B42" s="8">
+        <v>3.46120000659301</v>
+      </c>
+      <c r="C42" s="27">
+        <v>-76.527036889060597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B43" s="8">
+        <v>3.46360503358602</v>
+      </c>
+      <c r="C43" s="27">
+        <v>-76.525285093450293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B44" s="8">
+        <v>3.4744571417497099</v>
+      </c>
+      <c r="C44" s="27">
+        <v>-76.519586290917502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3.4786108736136101</v>
+      </c>
+      <c r="C45" s="27">
+        <v>-76.517005383944905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B46" s="8">
+        <v>3.4845472464303802</v>
+      </c>
+      <c r="C46" s="27">
+        <v>-76.513301945470005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B47" s="8">
+        <v>3.4894222072012702</v>
+      </c>
+      <c r="C47" s="27">
+        <v>-76.508614370714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B48" s="8">
+        <v>3.4901802319859598</v>
+      </c>
+      <c r="C48" s="27">
+        <v>-76.492286032070496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B49" s="8">
+        <v>3.48148386145234</v>
+      </c>
+      <c r="C49" s="27">
+        <v>-76.498225099283204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B50" s="8">
+        <v>3.4782792098909501</v>
+      </c>
+      <c r="C50" s="27">
+        <v>-76.502237168458294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B51" s="8">
+        <v>3.4737816012439802</v>
+      </c>
+      <c r="C51" s="27">
+        <v>-76.506695292211404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B52" s="8">
+        <v>3.4693666372207401</v>
+      </c>
+      <c r="C52" s="27">
+        <v>-76.510870866991596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B53" s="8">
+        <v>3.4662485470747399</v>
+      </c>
+      <c r="C53" s="27">
+        <v>-76.513289083970307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B54" s="8">
+        <v>3.4629000586879002</v>
+      </c>
+      <c r="C54" s="27">
+        <v>-76.517382983759205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734BEC0D-3AEC-4D79-9FC4-9FD39D7E6DE6}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3.4873179107966901</v>
+      </c>
+      <c r="C2" s="27">
+        <v>-76.517508102162694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3.4745267962202302</v>
+      </c>
+      <c r="C3" s="27">
+        <v>-76.527951765968197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.4660064054305502</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-76.527905484662099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3.4524713120166601</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-76.539893934388999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B6">
+        <v>3.4253696158719502</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-76.545488578810506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B7">
+        <v>3.4338798358923599</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-76.544419161616105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B8">
+        <v>3.4802282503437798</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-76.525573103944197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3.4549403099001799</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-76.534123557671705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B10">
+        <v>3.4559886908775499</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-76.538043876607503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.4552346649188999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-76.534792110876595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3.43015245617676</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-76.541088360108105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C4646-3495-482E-9737-FC5A30C7F01C}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B2">
+        <v>3.4160126157062201</v>
+      </c>
+      <c r="C2" s="8">
+        <v>-76.5533105765616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B3">
+        <v>3.4116573743598302</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-76.5509862704006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B4">
+        <v>3.4109562324891298</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-76.550457190451993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B5" s="27">
+        <v>3.4140726640427399</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-76.550048185744004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B6" s="27">
+        <v>3.4129718348407998</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-76.550451426221201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B7" s="27">
+        <v>3.4123335928527099</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-76.551429776959594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B8" s="27">
+        <v>3.43088861181799</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-76.5420083039443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B9" s="27">
+        <v>3.4287772180607199</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-76.539899290451899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B10" s="27">
+        <v>3.4300774888693901</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-76.541012146272706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B11" s="27">
+        <v>3.4238271515233301</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-76.537903075108503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B12" s="27">
+        <v>3.4251466189990301</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-76.536391319287802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B13" s="27">
+        <v>3.4232627823463599</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-76.536214763658506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B14" s="27">
+        <v>3.4222596108969001</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-76.538088282041699</v>
+      </c>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B15" s="27">
+        <v>3.42187049071432</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-76.536628348123699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B16" s="27">
+        <v>3.4131324907550802</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-76.5504299462727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B17" s="27">
+        <v>3.4228650969216199</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-76.536355925379397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B18" s="27">
+        <v>3.4062291557591999</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-76.520636412729104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A902990-CD3E-41A4-A4DB-9E641017F4E9}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3916,15 +5193,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +5215,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>986</v>
       </c>
@@ -3952,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>987</v>
       </c>
@@ -3966,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>988</v>
       </c>
@@ -3980,7 +5257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>989</v>
       </c>
@@ -3994,7 +5271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>990</v>
       </c>
@@ -4008,7 +5285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>991</v>
       </c>
@@ -4022,7 +5299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>992</v>
       </c>
@@ -4036,7 +5313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>993</v>
       </c>
@@ -4050,7 +5327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>994</v>
       </c>
@@ -4064,7 +5341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>995</v>
       </c>
@@ -4078,7 +5355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>996</v>
       </c>
@@ -4090,7 +5367,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>997</v>
       </c>
@@ -4101,7 +5378,7 @@
         <v>-76.501718049372201</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>998</v>
       </c>
@@ -4112,7 +5389,7 @@
         <v>-76.497639271360299</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>999</v>
       </c>
@@ -4123,7 +5400,7 @@
         <v>-76.513795484373901</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="19"/>
     </row>
   </sheetData>
@@ -4140,14 +5417,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4158,7 +5435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>887</v>
       </c>
@@ -4169,7 +5446,7 @@
         <v>-76.496227831826005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>888</v>
       </c>
@@ -4180,7 +5457,7 @@
         <v>-76.484710718113305</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>889</v>
       </c>
@@ -4191,7 +5468,7 @@
         <v>-76.494142891124298</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>890</v>
       </c>
@@ -4202,7 +5479,7 @@
         <v>-76.482309931607702</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>891</v>
       </c>
@@ -4213,7 +5490,7 @@
         <v>-76.480416833454001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>892</v>
       </c>
@@ -4224,7 +5501,7 @@
         <v>-76.497194789278097</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>893</v>
       </c>
@@ -4235,7 +5512,7 @@
         <v>-76.504209444170101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>894</v>
       </c>
@@ -4246,7 +5523,7 @@
         <v>-76.468101521119493</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>895</v>
       </c>
@@ -4257,7 +5534,7 @@
         <v>-76.486497763448995</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>896</v>
       </c>
@@ -4268,7 +5545,7 @@
         <v>-76.467428134613897</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>897</v>
       </c>
@@ -4279,7 +5556,7 @@
         <v>-76.514293821119594</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>898</v>
       </c>
@@ -4290,7 +5567,7 @@
         <v>-76.561204421096207</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>899</v>
       </c>
@@ -4301,7 +5578,7 @@
         <v>-76.484167558657106</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>900</v>
       </c>
@@ -4312,7 +5589,7 @@
         <v>-76.469858937260398</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>901</v>
       </c>
@@ -4323,7 +5600,7 @@
         <v>-76.478341705778703</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>902</v>
       </c>
@@ -4334,7 +5611,7 @@
         <v>-76.487939093601</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>903</v>
       </c>
@@ -4345,7 +5622,7 @@
         <v>-76.471523863449093</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>904</v>
       </c>
@@ -4356,7 +5633,7 @@
         <v>-76.496586363384594</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>905</v>
       </c>
@@ -4367,7 +5644,7 @@
         <v>-76.4775920039325</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>906</v>
       </c>
@@ -4378,7 +5655,7 @@
         <v>-76.508101036460303</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>907</v>
       </c>
@@ -4389,7 +5666,7 @@
         <v>-76.484587988591898</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>908</v>
       </c>
@@ -4400,7 +5677,7 @@
         <v>-76.554427763449297</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>909</v>
       </c>
@@ -4411,7 +5688,7 @@
         <v>-76.474692992284304</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>910</v>
       </c>
@@ -4422,7 +5699,7 @@
         <v>-76.479645705778694</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>911</v>
       </c>
@@ -4433,7 +5710,7 @@
         <v>-76.494319055994296</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>912</v>
       </c>
@@ -4444,7 +5721,7 @@
         <v>-76.494314161602404</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>913</v>
       </c>
@@ -4455,7 +5732,7 @@
         <v>-76.485556890438104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>914</v>
       </c>
@@ -4466,7 +5743,7 @@
         <v>-76.481950062349497</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>915</v>
       </c>
@@ -4477,7 +5754,7 @@
         <v>-76.485085305778398</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>916</v>
       </c>
@@ -4488,7 +5765,7 @@
         <v>-76.533705803932904</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>917</v>
       </c>
@@ -4499,7 +5776,7 @@
         <v>-76.499710434613803</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>918</v>
       </c>
@@ -4510,7 +5787,7 @@
         <v>-76.463289780635904</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>919</v>
       </c>
@@ -4521,7 +5798,7 @@
         <v>-76.529631317969901</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>920</v>
       </c>
@@ -4532,7 +5809,7 @@
         <v>-76.521047475300506</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>921</v>
       </c>
@@ -4543,7 +5820,7 @@
         <v>-76.496763910604201</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>922</v>
       </c>
@@ -4554,7 +5831,7 @@
         <v>-76.502276290243501</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>923</v>
       </c>
@@ -4565,7 +5842,7 @@
         <v>-76.527720762899094</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>924</v>
       </c>
@@ -4576,7 +5853,7 @@
         <v>-76.529066701262494</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>925</v>
       </c>
@@ -4587,7 +5864,7 @@
         <v>-76.526464801379603</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>926</v>
       </c>
@@ -4598,7 +5875,7 @@
         <v>-76.525586660175506</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>927</v>
       </c>
@@ -4609,7 +5886,7 @@
         <v>-76.537505175029807</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>928</v>
       </c>
@@ -4620,7 +5897,7 @@
         <v>-76.546617044460504</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>929</v>
       </c>
@@ -4631,7 +5908,7 @@
         <v>-76.538201362554005</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>930</v>
       </c>
@@ -4642,7 +5919,7 @@
         <v>-76.542804873220902</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>931</v>
       </c>
@@ -4653,7 +5930,7 @@
         <v>-76.529423114171195</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>932</v>
       </c>
@@ -4664,7 +5941,7 @@
         <v>-76.546324547476203</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>933</v>
       </c>
@@ -4675,7 +5952,7 @@
         <v>-76.545209605062198</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>934</v>
       </c>
@@ -4686,7 +5963,7 @@
         <v>-76.556750496675207</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>935</v>
       </c>
@@ -4697,7 +5974,7 @@
         <v>-76.500003467119001</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>936</v>
       </c>
@@ -4708,7 +5985,7 @@
         <v>-76.495147528430707</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>937</v>
       </c>
@@ -4719,7 +5996,7 @@
         <v>-76.496548556373497</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>938</v>
       </c>
@@ -4730,7 +6007,7 @@
         <v>-76.495531050291802</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>939</v>
       </c>
@@ -4741,7 +6018,7 @@
         <v>-76.501370671759403</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>940</v>
       </c>
@@ -4752,7 +6029,7 @@
         <v>-76.500651819361906</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>941</v>
       </c>
@@ -4763,7 +6040,7 @@
         <v>-76.497856867753597</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>942</v>
       </c>
@@ -4774,7 +6051,7 @@
         <v>-76.519630982127495</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>943</v>
       </c>
@@ -4785,7 +6062,7 @@
         <v>-76.523940314741694</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>944</v>
       </c>
@@ -4796,7 +6073,7 @@
         <v>-76.556522615130405</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>945</v>
       </c>
@@ -4807,7 +6084,7 @@
         <v>-76.555707223523598</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>946</v>
       </c>
@@ -4818,7 +6095,7 @@
         <v>-76.549157707927705</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>947</v>
       </c>
@@ -4829,7 +6106,7 @@
         <v>-76.537133550611799</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>948</v>
       </c>
@@ -4840,7 +6117,7 @@
         <v>-76.533806143927393</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>949</v>
       </c>
@@ -4851,7 +6128,7 @@
         <v>-76.539586697486996</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>950</v>
       </c>
@@ -4862,7 +6139,7 @@
         <v>-76.542548741840307</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>951</v>
       </c>
@@ -4873,7 +6150,7 @@
         <v>-76.541211997359198</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>952</v>
       </c>
@@ -4884,7 +6161,7 @@
         <v>-76.541616265160897</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>953</v>
       </c>
@@ -4895,7 +6172,7 @@
         <v>-76.539525695350605</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>954</v>
       </c>
@@ -4906,7 +6183,7 @@
         <v>-76.5354316961335</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>955</v>
       </c>
@@ -4917,7 +6194,7 @@
         <v>-76.516244676111995</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>956</v>
       </c>
@@ -4928,7 +6205,7 @@
         <v>-76.503935775456995</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>957</v>
       </c>
@@ -4939,7 +6216,7 @@
         <v>-76.498163252564296</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>958</v>
       </c>
@@ -4950,7 +6227,7 @@
         <v>-76.506533475476402</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>959</v>
       </c>
@@ -4961,7 +6238,7 @@
         <v>-76.505915715846001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>960</v>
       </c>
@@ -4972,7 +6249,7 @@
         <v>-76.508466834282501</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>961</v>
       </c>
@@ -4983,7 +6260,7 @@
         <v>-76.511395472516796</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>962</v>
       </c>
@@ -4994,7 +6271,7 @@
         <v>-76.5267658538435</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>963</v>
       </c>
@@ -5005,7 +6282,7 @@
         <v>-76.522362721889394</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>964</v>
       </c>
@@ -5016,7 +6293,7 @@
         <v>-76.503338021106103</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>965</v>
       </c>
@@ -5027,7 +6304,7 @@
         <v>-76.493933311498395</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>966</v>
       </c>
@@ -5038,7 +6315,7 @@
         <v>-76.485484419161295</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>967</v>
       </c>
@@ -5049,7 +6326,7 @@
         <v>-76.4987018968</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>968</v>
       </c>
@@ -5060,7 +6337,7 @@
         <v>-76.539920841823104</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>969</v>
       </c>
@@ -5071,7 +6348,7 @@
         <v>-76.535823501495003</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>970</v>
       </c>
@@ -5082,7 +6359,7 @@
         <v>-76.534184565359297</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>971</v>
       </c>
@@ -5093,7 +6370,7 @@
         <v>-76.533206490583396</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>972</v>
       </c>
@@ -5104,7 +6381,7 @@
         <v>-76.5036349272644</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>973</v>
       </c>
@@ -5115,7 +6392,7 @@
         <v>-76.534012897719506</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>974</v>
       </c>
@@ -5126,7 +6403,7 @@
         <v>-76.540461912944707</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>975</v>
       </c>
@@ -5137,7 +6414,7 @@
         <v>-76.515318251682601</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>976</v>
       </c>
@@ -5148,7 +6425,7 @@
         <v>-76.564285600195802</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>977</v>
       </c>
@@ -5159,7 +6436,7 @@
         <v>-76.511532620942603</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>978</v>
       </c>
@@ -5170,7 +6447,7 @@
         <v>-76.465740121455397</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>979</v>
       </c>
@@ -5181,7 +6458,7 @@
         <v>-76.4858261398102</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>980</v>
       </c>
@@ -5192,7 +6469,7 @@
         <v>-76.482033113609802</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>981</v>
       </c>
@@ -5203,7 +6480,7 @@
         <v>-76.477830030494999</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>982</v>
       </c>
@@ -5214,7 +6491,7 @@
         <v>-76.484766826201096</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>983</v>
       </c>
@@ -5225,7 +6502,7 @@
         <v>-76.493225474521196</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>984</v>
       </c>
@@ -5236,7 +6513,7 @@
         <v>-76.486701125630603</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>985</v>
       </c>
@@ -5259,19 +6536,19 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5285,7 +6562,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>863</v>
       </c>
@@ -5299,7 +6576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>864</v>
       </c>
@@ -5313,7 +6590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>865</v>
       </c>
@@ -5327,7 +6604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>866</v>
       </c>
@@ -5341,7 +6618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>867</v>
       </c>
@@ -5355,7 +6632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>868</v>
       </c>
@@ -5369,7 +6646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>869</v>
       </c>
@@ -5383,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>870</v>
       </c>
@@ -5397,7 +6674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>871</v>
       </c>
@@ -5411,7 +6688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>872</v>
       </c>
@@ -5425,7 +6702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>873</v>
       </c>
@@ -5439,7 +6716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>874</v>
       </c>
@@ -5453,7 +6730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>875</v>
       </c>
@@ -5467,7 +6744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>876</v>
       </c>
@@ -5481,7 +6758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>877</v>
       </c>
@@ -5495,7 +6772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>878</v>
       </c>
@@ -5509,7 +6786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>879</v>
       </c>
@@ -5523,7 +6800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>880</v>
       </c>
@@ -5537,7 +6814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>881</v>
       </c>
@@ -5551,7 +6828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>882</v>
       </c>
@@ -5565,7 +6842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>883</v>
       </c>
@@ -5579,7 +6856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>884</v>
       </c>
@@ -5593,7 +6870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>885</v>
       </c>
@@ -5607,7 +6884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>886</v>
       </c>
@@ -5621,32 +6898,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="14"/>
     </row>
   </sheetData>
@@ -5665,16 +6942,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5691,7 +6968,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -5705,7 +6982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -5719,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -5733,7 +7010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -5747,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>198</v>
       </c>
@@ -5761,7 +7038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>199</v>
       </c>
@@ -5775,7 +7052,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>201</v>
       </c>
@@ -5789,7 +7066,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>203</v>
       </c>
@@ -5803,7 +7080,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>205</v>
       </c>
@@ -5817,7 +7094,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>207</v>
       </c>
@@ -5831,7 +7108,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>209</v>
       </c>
@@ -5845,7 +7122,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>211</v>
       </c>
@@ -5859,7 +7136,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>213</v>
       </c>
@@ -5873,7 +7150,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>215</v>
       </c>
@@ -5887,7 +7164,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>217</v>
       </c>
@@ -5901,7 +7178,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>219</v>
       </c>
@@ -5915,7 +7192,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>221</v>
       </c>
@@ -5929,7 +7206,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>223</v>
       </c>
@@ -5943,7 +7220,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>225</v>
       </c>
@@ -5957,7 +7234,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>227</v>
       </c>
@@ -5971,7 +7248,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>229</v>
       </c>
@@ -5985,7 +7262,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>231</v>
       </c>
@@ -5999,7 +7276,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>233</v>
       </c>
@@ -6013,7 +7290,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>235</v>
       </c>
@@ -6027,7 +7304,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>237</v>
       </c>
@@ -6041,7 +7318,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>239</v>
       </c>
@@ -6055,7 +7332,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>241</v>
       </c>
@@ -6069,7 +7346,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>243</v>
       </c>
@@ -6083,7 +7360,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>245</v>
       </c>
@@ -6097,7 +7374,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>247</v>
       </c>
@@ -6111,7 +7388,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>249</v>
       </c>
@@ -6125,7 +7402,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>251</v>
       </c>
@@ -6139,7 +7416,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>253</v>
       </c>
@@ -6153,7 +7430,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>255</v>
       </c>
@@ -6167,7 +7444,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>257</v>
       </c>
@@ -6181,7 +7458,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>259</v>
       </c>
@@ -6195,7 +7472,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>261</v>
       </c>
@@ -6209,7 +7486,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>263</v>
       </c>
@@ -6223,7 +7500,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>265</v>
       </c>
@@ -6237,7 +7514,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>267</v>
       </c>
@@ -6251,7 +7528,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>269</v>
       </c>
@@ -6265,7 +7542,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>271</v>
       </c>
@@ -6279,7 +7556,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>273</v>
       </c>
@@ -6293,7 +7570,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>275</v>
       </c>
@@ -6307,7 +7584,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>277</v>
       </c>
@@ -6321,7 +7598,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>279</v>
       </c>
@@ -6335,7 +7612,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>281</v>
       </c>
@@ -6349,7 +7626,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>283</v>
       </c>
@@ -6363,7 +7640,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>285</v>
       </c>
@@ -6377,7 +7654,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>287</v>
       </c>
@@ -6391,7 +7668,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>289</v>
       </c>
@@ -6405,7 +7682,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>291</v>
       </c>
@@ -6419,7 +7696,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>293</v>
       </c>
@@ -6433,7 +7710,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>295</v>
       </c>
@@ -6447,7 +7724,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>297</v>
       </c>
@@ -6461,7 +7738,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>299</v>
       </c>
@@ -6475,7 +7752,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>301</v>
       </c>
@@ -6489,7 +7766,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>303</v>
       </c>
@@ -6503,7 +7780,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>305</v>
       </c>
@@ -6517,7 +7794,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>307</v>
       </c>
@@ -6531,7 +7808,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>309</v>
       </c>
@@ -6545,7 +7822,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>311</v>
       </c>
@@ -6559,7 +7836,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>313</v>
       </c>
@@ -6573,7 +7850,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>315</v>
       </c>
@@ -6587,7 +7864,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>317</v>
       </c>
@@ -6601,7 +7878,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>319</v>
       </c>
@@ -6615,7 +7892,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>321</v>
       </c>
@@ -6629,7 +7906,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>323</v>
       </c>
@@ -6643,7 +7920,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>325</v>
       </c>
@@ -6657,7 +7934,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>327</v>
       </c>
@@ -6671,7 +7948,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>329</v>
       </c>
@@ -6685,7 +7962,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>331</v>
       </c>
@@ -6699,7 +7976,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>333</v>
       </c>
@@ -6713,7 +7990,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>335</v>
       </c>
@@ -6727,7 +8004,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>337</v>
       </c>
@@ -6741,7 +8018,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>339</v>
       </c>
@@ -6755,7 +8032,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>341</v>
       </c>
@@ -6769,7 +8046,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>343</v>
       </c>
@@ -6783,7 +8060,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>345</v>
       </c>
@@ -6797,7 +8074,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>347</v>
       </c>
@@ -6811,7 +8088,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>349</v>
       </c>
@@ -6825,7 +8102,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>351</v>
       </c>
@@ -6839,7 +8116,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>353</v>
       </c>
@@ -6853,7 +8130,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>355</v>
       </c>
@@ -6867,7 +8144,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>357</v>
       </c>
@@ -6881,7 +8158,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>359</v>
       </c>
@@ -6895,7 +8172,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>361</v>
       </c>
@@ -6909,7 +8186,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>363</v>
       </c>
@@ -6923,7 +8200,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>365</v>
       </c>
@@ -6937,7 +8214,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>367</v>
       </c>
@@ -6951,7 +8228,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>369</v>
       </c>
@@ -6965,7 +8242,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>371</v>
       </c>
@@ -6979,7 +8256,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>373</v>
       </c>
@@ -6993,7 +8270,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>375</v>
       </c>
@@ -7007,7 +8284,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>377</v>
       </c>
@@ -7021,7 +8298,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>379</v>
       </c>
@@ -7035,7 +8312,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>381</v>
       </c>
@@ -7049,7 +8326,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>383</v>
       </c>
@@ -7063,7 +8340,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>385</v>
       </c>
@@ -7077,7 +8354,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>387</v>
       </c>
@@ -7087,7 +8364,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>388</v>
       </c>
@@ -7097,7 +8374,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>390</v>
       </c>
@@ -7107,7 +8384,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
         <v>392</v>
       </c>
@@ -7117,7 +8394,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>394</v>
       </c>
@@ -7127,7 +8404,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>396</v>
       </c>
@@ -7137,7 +8414,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>398</v>
       </c>
@@ -7147,7 +8424,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>400</v>
       </c>
@@ -7157,7 +8434,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>402</v>
       </c>
@@ -7167,7 +8444,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>404</v>
       </c>
@@ -7177,7 +8454,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>406</v>
       </c>
@@ -7187,7 +8464,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>408</v>
       </c>
@@ -7197,7 +8474,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>410</v>
       </c>
@@ -7207,7 +8484,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
         <v>412</v>
       </c>
@@ -7217,7 +8494,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>414</v>
       </c>
@@ -7227,7 +8504,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
         <v>416</v>
       </c>
@@ -7237,7 +8514,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>418</v>
       </c>
@@ -7247,7 +8524,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>420</v>
       </c>
@@ -7257,7 +8534,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>422</v>
       </c>
@@ -7267,7 +8544,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>424</v>
       </c>
@@ -7277,7 +8554,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>426</v>
       </c>
@@ -7287,7 +8564,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>428</v>
       </c>
@@ -7297,7 +8574,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>430</v>
       </c>
@@ -7307,7 +8584,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>432</v>
       </c>
@@ -7317,7 +8594,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>434</v>
       </c>
@@ -7327,7 +8604,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>436</v>
       </c>
@@ -7337,7 +8614,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>438</v>
       </c>
@@ -7347,7 +8624,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>440</v>
       </c>
@@ -7357,7 +8634,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>442</v>
       </c>
@@ -7367,7 +8644,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>444</v>
       </c>
@@ -7377,7 +8654,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>446</v>
       </c>
@@ -7387,7 +8664,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>448</v>
       </c>
@@ -7397,7 +8674,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>450</v>
       </c>
@@ -7407,7 +8684,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>452</v>
       </c>
@@ -7417,7 +8694,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>454</v>
       </c>
@@ -7427,7 +8704,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>456</v>
       </c>
@@ -7437,7 +8714,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>458</v>
       </c>
@@ -7447,7 +8724,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>460</v>
       </c>
@@ -7457,7 +8734,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>462</v>
       </c>
@@ -7467,7 +8744,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>464</v>
       </c>
@@ -7477,7 +8754,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>466</v>
       </c>
@@ -7487,7 +8764,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>468</v>
       </c>
@@ -7497,7 +8774,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>470</v>
       </c>
@@ -7507,7 +8784,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>472</v>
       </c>
@@ -7517,7 +8794,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>474</v>
       </c>
@@ -7527,7 +8804,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>476</v>
       </c>
@@ -7537,7 +8814,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>477</v>
       </c>
@@ -7547,7 +8824,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>479</v>
       </c>
@@ -7557,7 +8834,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>481</v>
       </c>
@@ -7567,7 +8844,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>483</v>
       </c>
@@ -7577,7 +8854,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>485</v>
       </c>
@@ -7587,7 +8864,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>487</v>
       </c>
@@ -7597,7 +8874,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>489</v>
       </c>
@@ -7607,7 +8884,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>491</v>
       </c>
@@ -7617,7 +8894,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
         <v>493</v>
       </c>
@@ -7627,7 +8904,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
         <v>495</v>
       </c>
@@ -7637,7 +8914,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>497</v>
       </c>
@@ -7647,7 +8924,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
         <v>499</v>
       </c>
@@ -7657,7 +8934,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>501</v>
       </c>
@@ -7667,7 +8944,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
         <v>503</v>
       </c>
@@ -7677,7 +8954,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>505</v>
       </c>
@@ -7687,7 +8964,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>507</v>
       </c>
@@ -7697,7 +8974,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>509</v>
       </c>
@@ -7707,7 +8984,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>511</v>
       </c>
@@ -7717,7 +8994,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>513</v>
       </c>
@@ -7727,7 +9004,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>515</v>
       </c>
@@ -7737,7 +9014,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>517</v>
       </c>
@@ -7747,7 +9024,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
         <v>519</v>
       </c>
@@ -7757,7 +9034,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>521</v>
       </c>
@@ -7767,7 +9044,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>523</v>
       </c>
@@ -7777,7 +9054,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>525</v>
       </c>
@@ -7787,7 +9064,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>526</v>
       </c>
@@ -7797,7 +9074,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>528</v>
       </c>
@@ -7807,7 +9084,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>530</v>
       </c>
@@ -7817,7 +9094,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>532</v>
       </c>
@@ -7827,7 +9104,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>534</v>
       </c>
@@ -7837,7 +9114,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>536</v>
       </c>
@@ -7847,7 +9124,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
         <v>538</v>
       </c>
@@ -7857,7 +9134,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>540</v>
       </c>
@@ -7867,7 +9144,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>542</v>
       </c>
@@ -7877,7 +9154,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
         <v>544</v>
       </c>
@@ -7887,7 +9164,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>546</v>
       </c>
@@ -7897,7 +9174,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>548</v>
       </c>
@@ -7907,7 +9184,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>550</v>
       </c>
@@ -7917,7 +9194,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>552</v>
       </c>
@@ -7927,7 +9204,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>554</v>
       </c>
@@ -7937,7 +9214,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>556</v>
       </c>
@@ -7947,7 +9224,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>558</v>
       </c>
@@ -7957,7 +9234,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>560</v>
       </c>
@@ -7967,7 +9244,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>562</v>
       </c>
@@ -7977,7 +9254,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>564</v>
       </c>
@@ -7987,7 +9264,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>566</v>
       </c>
@@ -7997,7 +9274,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>568</v>
       </c>
@@ -8007,7 +9284,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>570</v>
       </c>
@@ -8017,7 +9294,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>572</v>
       </c>
@@ -8027,7 +9304,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>574</v>
       </c>
@@ -8037,7 +9314,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>576</v>
       </c>
@@ -8047,7 +9324,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>578</v>
       </c>
@@ -8057,7 +9334,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>580</v>
       </c>
@@ -8067,7 +9344,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>582</v>
       </c>
@@ -8077,7 +9354,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>584</v>
       </c>
@@ -8087,7 +9364,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>586</v>
       </c>
@@ -8097,7 +9374,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>588</v>
       </c>
@@ -8107,7 +9384,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>590</v>
       </c>
@@ -8117,7 +9394,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>591</v>
       </c>
@@ -8127,7 +9404,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
         <v>593</v>
       </c>
@@ -8137,7 +9414,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>595</v>
       </c>
@@ -8147,7 +9424,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>597</v>
       </c>
@@ -8157,7 +9434,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>599</v>
       </c>
@@ -8167,7 +9444,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>601</v>
       </c>
@@ -8177,7 +9454,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>603</v>
       </c>
@@ -8187,7 +9464,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>605</v>
       </c>
@@ -8197,7 +9474,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
         <v>607</v>
       </c>
@@ -8207,7 +9484,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
         <v>609</v>
       </c>
@@ -8217,7 +9494,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
         <v>611</v>
       </c>
@@ -8227,7 +9504,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
         <v>613</v>
       </c>
@@ -8237,7 +9514,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>615</v>
       </c>
@@ -8247,7 +9524,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
         <v>617</v>
       </c>
@@ -8257,7 +9534,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
         <v>619</v>
       </c>
@@ -8267,7 +9544,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>621</v>
       </c>
@@ -8277,7 +9554,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
         <v>623</v>
       </c>
@@ -8287,7 +9564,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
         <v>625</v>
       </c>
@@ -8297,7 +9574,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>627</v>
       </c>
@@ -8307,7 +9584,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>629</v>
       </c>
@@ -8317,7 +9594,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
         <v>631</v>
       </c>
@@ -8327,7 +9604,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="s">
         <v>633</v>
       </c>
@@ -8337,7 +9614,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="s">
         <v>635</v>
       </c>
@@ -8347,7 +9624,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>637</v>
       </c>
@@ -8357,7 +9634,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>639</v>
       </c>
@@ -8367,7 +9644,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
         <v>641</v>
       </c>
@@ -8377,7 +9654,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="s">
         <v>643</v>
       </c>
@@ -8387,7 +9664,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="s">
         <v>645</v>
       </c>
@@ -8397,7 +9674,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>647</v>
       </c>
@@ -8407,7 +9684,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>649</v>
       </c>
@@ -8417,7 +9694,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>651</v>
       </c>
@@ -8427,7 +9704,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>653</v>
       </c>
@@ -8437,7 +9714,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>655</v>
       </c>
@@ -8447,7 +9724,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
         <v>657</v>
       </c>
@@ -8457,7 +9734,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>659</v>
       </c>
@@ -8467,7 +9744,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
         <v>661</v>
       </c>
@@ -8477,7 +9754,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>663</v>
       </c>
@@ -8487,7 +9764,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>665</v>
       </c>
@@ -8497,7 +9774,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>667</v>
       </c>
@@ -8507,7 +9784,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>669</v>
       </c>
@@ -8517,7 +9794,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>671</v>
       </c>
@@ -8527,7 +9804,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
         <v>673</v>
       </c>
@@ -8537,7 +9814,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="12" t="s">
         <v>675</v>
       </c>
@@ -8547,7 +9824,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
         <v>677</v>
       </c>
@@ -8557,7 +9834,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
         <v>679</v>
       </c>
@@ -8567,7 +9844,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
         <v>681</v>
       </c>
@@ -8577,7 +9854,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="s">
         <v>683</v>
       </c>
@@ -8587,7 +9864,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="12" t="s">
         <v>685</v>
       </c>
@@ -8597,7 +9874,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
         <v>687</v>
       </c>
@@ -8607,7 +9884,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
         <v>689</v>
       </c>
@@ -8617,7 +9894,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="s">
         <v>691</v>
       </c>
@@ -8627,7 +9904,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="12" t="s">
         <v>693</v>
       </c>
@@ -8637,7 +9914,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="s">
         <v>695</v>
       </c>
@@ -8647,7 +9924,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>697</v>
       </c>
@@ -8657,7 +9934,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="12" t="s">
         <v>699</v>
       </c>
@@ -8667,7 +9944,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="12" t="s">
         <v>701</v>
       </c>
@@ -8677,7 +9954,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>703</v>
       </c>
@@ -8687,7 +9964,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="s">
         <v>705</v>
       </c>
@@ -8697,7 +9974,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
         <v>707</v>
       </c>
@@ -8707,7 +9984,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
         <v>709</v>
       </c>
@@ -8717,7 +9994,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>711</v>
       </c>
@@ -8727,7 +10004,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
         <v>713</v>
       </c>
@@ -8737,7 +10014,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="12" t="s">
         <v>715</v>
       </c>
@@ -8747,7 +10024,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="12" t="s">
         <v>717</v>
       </c>
@@ -8757,7 +10034,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="12" t="s">
         <v>719</v>
       </c>
@@ -8767,7 +10044,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="12" t="s">
         <v>721</v>
       </c>
@@ -8777,7 +10054,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="12" t="s">
         <v>723</v>
       </c>
@@ -8787,7 +10064,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="12" t="s">
         <v>725</v>
       </c>
@@ -8797,7 +10074,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
         <v>727</v>
       </c>
@@ -8807,7 +10084,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
         <v>729</v>
       </c>
@@ -8817,7 +10094,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
         <v>731</v>
       </c>
@@ -8827,7 +10104,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
         <v>733</v>
       </c>
@@ -8837,7 +10114,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="12" t="s">
         <v>735</v>
       </c>
@@ -8847,7 +10124,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="12" t="s">
         <v>737</v>
       </c>
@@ -8857,7 +10134,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
         <v>739</v>
       </c>
@@ -8867,7 +10144,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="12" t="s">
         <v>741</v>
       </c>
@@ -8877,7 +10154,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
         <v>743</v>
       </c>
@@ -8887,7 +10164,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
         <v>745</v>
       </c>
@@ -8897,7 +10174,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="12" t="s">
         <v>747</v>
       </c>
@@ -8907,7 +10184,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="12" t="s">
         <v>749</v>
       </c>
@@ -8917,7 +10194,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="12" t="s">
         <v>751</v>
       </c>
@@ -8927,7 +10204,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="12" t="s">
         <v>753</v>
       </c>
@@ -8937,7 +10214,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="12" t="s">
         <v>755</v>
       </c>
@@ -8947,7 +10224,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
         <v>757</v>
       </c>
@@ -8957,7 +10234,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
         <v>759</v>
       </c>
@@ -8967,7 +10244,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
         <v>761</v>
       </c>
@@ -8977,7 +10254,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
         <v>763</v>
       </c>
@@ -8987,7 +10264,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="12" t="s">
         <v>765</v>
       </c>
@@ -8997,7 +10274,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="12" t="s">
         <v>767</v>
       </c>
@@ -9007,7 +10284,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="12" t="s">
         <v>769</v>
       </c>
@@ -9017,7 +10294,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="12" t="s">
         <v>771</v>
       </c>
@@ -9027,7 +10304,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="12" t="s">
         <v>773</v>
       </c>
@@ -9037,7 +10314,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="12" t="s">
         <v>775</v>
       </c>
@@ -9047,7 +10324,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="12" t="s">
         <v>777</v>
       </c>
@@ -9057,7 +10334,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
         <v>779</v>
       </c>
@@ -9067,7 +10344,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
         <v>781</v>
       </c>
@@ -9077,7 +10354,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
         <v>783</v>
       </c>
@@ -9087,7 +10364,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
         <v>785</v>
       </c>
@@ -9097,7 +10374,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
         <v>787</v>
       </c>
@@ -9107,7 +10384,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
         <v>789</v>
       </c>
@@ -9117,7 +10394,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="12" t="s">
         <v>791</v>
       </c>
@@ -9127,7 +10404,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="12" t="s">
         <v>793</v>
       </c>
@@ -9137,7 +10414,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="12" t="s">
         <v>795</v>
       </c>
@@ -9147,7 +10424,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="12" t="s">
         <v>797</v>
       </c>
@@ -9157,7 +10434,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="12" t="s">
         <v>799</v>
       </c>
@@ -9167,7 +10444,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="12" t="s">
         <v>801</v>
       </c>
@@ -9177,7 +10454,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="12" t="s">
         <v>803</v>
       </c>
@@ -9187,7 +10464,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="12" t="s">
         <v>805</v>
       </c>
@@ -9197,7 +10474,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="12" t="s">
         <v>807</v>
       </c>
@@ -9207,7 +10484,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="12" t="s">
         <v>809</v>
       </c>
@@ -9217,7 +10494,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="12" t="s">
         <v>811</v>
       </c>
@@ -9227,7 +10504,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="12" t="s">
         <v>813</v>
       </c>
@@ -9237,7 +10514,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
         <v>815</v>
       </c>
@@ -9247,7 +10524,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="12" t="s">
         <v>817</v>
       </c>
@@ -9257,7 +10534,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="12" t="s">
         <v>819</v>
       </c>
@@ -9267,7 +10544,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="12" t="s">
         <v>820</v>
       </c>
@@ -9277,7 +10554,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="12" t="s">
         <v>822</v>
       </c>
@@ -9287,7 +10564,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="12" t="s">
         <v>824</v>
       </c>
@@ -9297,7 +10574,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="12" t="s">
         <v>826</v>
       </c>
@@ -9307,7 +10584,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="12" t="s">
         <v>828</v>
       </c>
@@ -9317,7 +10594,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="12" t="s">
         <v>830</v>
       </c>
@@ -9327,7 +10604,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="12" t="s">
         <v>832</v>
       </c>
@@ -9337,7 +10614,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="12" t="s">
         <v>834</v>
       </c>
@@ -9345,7 +10622,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="12" t="s">
         <v>836</v>
       </c>
@@ -9353,7 +10630,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="12" t="s">
         <v>838</v>
       </c>
@@ -9361,7 +10638,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="12" t="s">
         <v>840</v>
       </c>
@@ -9369,7 +10646,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="12" t="s">
         <v>842</v>
       </c>
@@ -9377,7 +10654,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
         <v>844</v>
       </c>
@@ -9385,7 +10662,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="12" t="s">
         <v>846</v>
       </c>
@@ -9393,7 +10670,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
         <v>848</v>
       </c>
@@ -9401,7 +10678,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
         <v>850</v>
       </c>
@@ -9409,7 +10686,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
         <v>852</v>
       </c>
@@ -9417,7 +10694,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
         <v>854</v>
       </c>
@@ -9425,7 +10702,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
         <v>856</v>
       </c>
@@ -9433,7 +10710,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
         <v>858</v>
       </c>
@@ -9441,7 +10718,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
         <v>860</v>
       </c>
@@ -9449,16 +10726,16 @@
         <v>861</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9471,16 +10748,16 @@
   </sheetPr>
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9491,7 +10768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -9502,7 +10779,7 @@
         <v>-76.519933875735404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -9513,7 +10790,7 @@
         <v>-76.532695517829794</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -9524,7 +10801,7 @@
         <v>-76.5381811988115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -9535,7 +10812,7 @@
         <v>-76.499361592015205</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -9546,7 +10823,7 @@
         <v>-76.517490730604607</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -9557,7 +10834,7 @@
         <v>-76.496409592534505</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -9568,7 +10845,7 @@
         <v>-76.513499464386001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -9579,7 +10856,7 @@
         <v>-76.501167280500496</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -9590,7 +10867,7 @@
         <v>-76.542770647909194</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -9601,7 +10878,7 @@
         <v>-76.535192153129202</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -9612,7 +10889,7 @@
         <v>-76.547227804139695</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -9623,7 +10900,7 @@
         <v>-76.540689184928993</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -9634,7 +10911,7 @@
         <v>-76.547821887122495</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -9645,7 +10922,7 @@
         <v>-76.537003671460099</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -9656,7 +10933,7 @@
         <v>-76.527814778619003</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -9667,7 +10944,7 @@
         <v>-76.524457329152597</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -9678,7 +10955,7 @@
         <v>-76.531702794307094</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -9689,7 +10966,7 @@
         <v>-76.517445748719197</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -9700,7 +10977,7 @@
         <v>-76.497188979870899</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -9711,7 +10988,7 @@
         <v>-76.515215020304595</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -9722,7 +10999,7 @@
         <v>-76.526243040623299</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -9733,7 +11010,7 @@
         <v>-76.532556061356203</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -9744,7 +11021,7 @@
         <v>-76.526457941243905</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -9755,7 +11032,7 @@
         <v>-76.500905584926599</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -9766,7 +11043,7 @@
         <v>-76.530211571351202</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -9777,7 +11054,7 @@
         <v>-76.531890576028204</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -9788,7 +11065,7 @@
         <v>-76.538852582932407</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -9799,7 +11076,7 @@
         <v>-76.546196190554696</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -9810,7 +11087,7 @@
         <v>-76.539639234177997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -9821,7 +11098,7 @@
         <v>-76.538546802991405</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -9832,7 +11109,7 @@
         <v>-76.523374044049902</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -9843,7 +11120,7 @@
         <v>-76.531506691193897</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -9854,7 +11131,7 @@
         <v>-76.498531153223894</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -9865,7 +11142,7 @@
         <v>-76.497157816192598</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -9876,7 +11153,7 @@
         <v>-76.526550081669996</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -9887,7 +11164,7 @@
         <v>-76.530156681623694</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -9898,7 +11175,7 @@
         <v>-76.480529938982102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -9909,7 +11186,7 @@
         <v>-76.509724546927401</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -9920,7 +11197,7 @@
         <v>-76.531010632574393</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -9931,7 +11208,7 @@
         <v>-76.544128445753202</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -9942,7 +11219,7 @@
         <v>-76.5221369664945</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -9953,7 +11230,7 @@
         <v>-76.512105272362305</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -9964,7 +11241,7 @@
         <v>-76.478534117890405</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -9975,7 +11252,7 @@
         <v>-76.517507546135604</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -9986,7 +11263,7 @@
         <v>-76.526124196337804</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -9997,7 +11274,7 @@
         <v>-76.536155438151795</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -10008,7 +11285,7 @@
         <v>-76.547343143812796</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -10019,7 +11296,7 @@
         <v>-76.5395517667814</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -10030,7 +11307,7 @@
         <v>-76.527548413139499</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -10041,7 +11318,7 @@
         <v>-76.498068465489894</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -10052,7 +11329,7 @@
         <v>-76.518674944982806</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -10063,7 +11340,7 @@
         <v>-76.513868782892004</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>133</v>
       </c>
@@ -10074,7 +11351,7 @@
         <v>-76.529953036794396</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -10085,7 +11362,7 @@
         <v>-76.530241383095102</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>135</v>
       </c>
@@ -10096,7 +11373,7 @@
         <v>-76.527065198109796</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -10107,7 +11384,7 @@
         <v>-76.527807442710795</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -10118,7 +11395,7 @@
         <v>-76.544802333120302</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -10129,7 +11406,7 @@
         <v>-76.536734072428303</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>139</v>
       </c>
@@ -10140,7 +11417,7 @@
         <v>-76.547377537801907</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -10151,7 +11428,7 @@
         <v>-76.543944382417905</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -10162,7 +11439,7 @@
         <v>-76.541369544631493</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -10173,7 +11450,7 @@
         <v>-76.545146318026198</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -10184,7 +11461,7 @@
         <v>-76.539309632603306</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -10195,7 +11472,7 @@
         <v>-76.539824758162297</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -10206,7 +11483,7 @@
         <v>-76.522657889384405</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10217,7 +11494,7 @@
         <v>-76.527121367042795</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -10228,7 +11505,7 @@
         <v>-76.531069768736899</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>148</v>
       </c>
@@ -10239,7 +11516,7 @@
         <v>-76.480231182745101</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -10250,7 +11527,7 @@
         <v>-76.503236984154498</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -10261,7 +11538,7 @@
         <v>-76.501518836374004</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -10272,7 +11549,7 @@
         <v>-76.514071029924196</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -10283,7 +11560,7 @@
         <v>-76.531909388572203</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -10294,7 +11571,7 @@
         <v>-76.533111710727098</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -10305,7 +11582,7 @@
         <v>-76.530965904820903</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -10316,7 +11593,7 @@
         <v>-76.516267492832498</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -10327,7 +11604,7 @@
         <v>-76.549395524931597</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -10338,7 +11615,7 @@
         <v>-76.539682212028197</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -10349,7 +11626,7 @@
         <v>-76.526429886055197</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -10360,7 +11637,7 @@
         <v>-76.503052509597396</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -10371,7 +11648,7 @@
         <v>-76.514725415453398</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -10382,7 +11659,7 @@
         <v>-76.527601465203702</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -10393,7 +11670,7 @@
         <v>-76.527430105080995</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -10404,7 +11681,7 @@
         <v>-76.5288547873932</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -10415,7 +11692,7 @@
         <v>-76.531304558016004</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -10426,7 +11703,7 @@
         <v>-76.537545891108905</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -10437,7 +11714,7 @@
         <v>-76.535443041288403</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -10448,7 +11725,7 @@
         <v>-76.531408885985201</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>168</v>
       </c>
@@ -10459,7 +11736,7 @@
         <v>-76.543843974772898</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -10470,7 +11747,7 @@
         <v>-76.547187073436305</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>170</v>
       </c>
@@ -10481,7 +11758,7 @@
         <v>-76.541006319602005</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>171</v>
       </c>
@@ -10492,7 +11769,7 @@
         <v>-76.538435297871402</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>172</v>
       </c>
@@ -10503,7 +11780,7 @@
         <v>-76.537920758128806</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>173</v>
       </c>
@@ -10514,7 +11791,7 @@
         <v>-76.526933081265597</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>174</v>
       </c>
@@ -10525,7 +11802,7 @@
         <v>-76.531912028500898</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>175</v>
       </c>
@@ -10536,7 +11813,7 @@
         <v>-76.531885068667805</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -10547,7 +11824,7 @@
         <v>-76.539809983030693</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -10558,7 +11835,7 @@
         <v>-76.491111946098002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -10569,7 +11846,7 @@
         <v>-76.502467606557701</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>179</v>
       </c>
@@ -10580,7 +11857,7 @@
         <v>-76.531538298662795</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -10591,7 +11868,7 @@
         <v>-76.517282810898806</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -10602,7 +11879,7 @@
         <v>-76.523473419005498</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>182</v>
       </c>
@@ -10613,7 +11890,7 @@
         <v>-76.540871561134495</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -10624,7 +11901,7 @@
         <v>-76.548603952523806</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -10635,7 +11912,7 @@
         <v>-76.5273845869702</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>185</v>
       </c>
@@ -10646,7 +11923,7 @@
         <v>-76.529554130116495</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>186</v>
       </c>
@@ -10657,7 +11934,7 @@
         <v>-76.526971051770602</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -10668,7 +11945,7 @@
         <v>-76.529288811874594</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -10679,7 +11956,7 @@
         <v>-76.525254891303703</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>189</v>
       </c>
@@ -10690,7 +11967,7 @@
         <v>-76.532677336978395</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>190</v>
       </c>
@@ -10701,7 +11978,7 @@
         <v>-76.534796277358296</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>191</v>
       </c>
@@ -10712,7 +11989,7 @@
         <v>-76.538668325569006</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -10733,18 +12010,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10755,7 +12034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -10766,7 +12045,7 @@
         <v>-76.545244315129693</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -10777,7 +12056,7 @@
         <v>-76.521413870538098</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -10788,7 +12067,7 @@
         <v>-76.542898381701093</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -10799,7 +12078,7 @@
         <v>-76.533304813241202</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -10810,7 +12089,7 @@
         <v>-76.540302670785806</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -10821,7 +12100,7 @@
         <v>-76.509904755339704</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -10832,7 +12111,7 @@
         <v>-76.531528170696305</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -10843,7 +12122,7 @@
         <v>-76.529958700553394</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -10854,7 +12133,7 @@
         <v>-76.503630470634405</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -10865,7 +12144,7 @@
         <v>-76.5046067974652</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -10876,7 +12155,7 @@
         <v>-76.543755119133493</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -10887,7 +12166,7 @@
         <v>-76.545508549185797</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -10898,7 +12177,7 @@
         <v>-76.531090004001797</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -10909,7 +12188,7 @@
         <v>-76.545692575959805</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -10920,7 +12199,7 @@
         <v>-76.518315941650798</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -10931,7 +12210,7 @@
         <v>-76.533949906358202</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -10942,7 +12221,7 @@
         <v>-76.549817829384594</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -10953,7 +12232,7 @@
         <v>-76.530828110750704</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -10964,7 +12243,7 @@
         <v>-76.544311615253804</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -10975,7 +12254,7 @@
         <v>-76.504384812898806</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -10986,7 +12265,7 @@
         <v>-76.546542457127202</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -10997,7 +12276,7 @@
         <v>-76.545228969845994</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -11008,7 +12287,7 @@
         <v>-76.533619760227594</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -11019,7 +12298,7 @@
         <v>-76.5321416205486</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -11030,7 +12309,7 @@
         <v>-76.564794022307098</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -11041,7 +12320,7 @@
         <v>-76.536779067658202</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -11052,7 +12331,7 @@
         <v>-76.534697900128506</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -11063,7 +12342,7 @@
         <v>-76.518706057219802</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -11074,7 +12353,7 @@
         <v>-76.539880537424807</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -11085,7 +12364,7 @@
         <v>-76.533643715482</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -11096,7 +12375,7 @@
         <v>-76.531141237452204</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -11107,7 +12386,7 @@
         <v>-76.540548764424301</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -11116,6 +12395,39 @@
       </c>
       <c r="C34" s="10">
         <v>-76.516813595005502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3.4231308613440699</v>
+      </c>
+      <c r="C35" s="8">
+        <v>-76.517296719287799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3.3918539087271702</v>
+      </c>
+      <c r="C36" s="11">
+        <v>-76.545358339702503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B37" s="11">
+        <v>3.4602031098975998</v>
+      </c>
+      <c r="C37" s="11">
+        <v>-76.520835230928995</v>
       </c>
     </row>
   </sheetData>
@@ -11132,14 +12444,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11153,7 +12465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -11167,7 +12479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -11181,7 +12493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -11195,7 +12507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -11209,7 +12521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -11223,7 +12535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -11237,7 +12549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -11251,7 +12563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -11265,7 +12577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -11279,7 +12591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -11293,7 +12605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -11305,27 +12617,27 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
@@ -11341,16 +12653,18 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11361,7 +12675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -11372,7 +12686,7 @@
         <v>-76.543755119133493</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11383,7 +12697,7 @@
         <v>-76.532067799999993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11394,7 +12708,7 @@
         <v>-76.532067799999993</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11405,7 +12719,7 @@
         <v>-76.532067799999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -11416,7 +12730,7 @@
         <v>-76.532067799999993</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -11427,7 +12741,7 @@
         <v>-76.532067799999993</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -11438,7 +12752,7 @@
         <v>-76.532067799999993</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -11449,7 +12763,7 @@
         <v>-76.532067799999993</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -11460,7 +12774,7 @@
         <v>-76.520746026209622</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -11471,7 +12785,7 @@
         <v>-76.522356353069398</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -11482,7 +12796,7 @@
         <v>-76.532035984036895</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -11493,7 +12807,7 @@
         <v>-76.487606795427197</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -11504,7 +12818,7 @@
         <v>-76.5240259887034</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -11515,7 +12829,7 @@
         <v>-76.537082952692103</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -11526,7 +12840,7 @@
         <v>-76.537236198441803</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -11537,7 +12851,7 @@
         <v>-76.533310461054498</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -11548,7 +12862,7 @@
         <v>-76.530881205710003</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -11559,7 +12873,7 @@
         <v>-76.532418206749099</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -11570,7 +12884,7 @@
         <v>-76.537184300000007</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -11581,7 +12895,7 @@
         <v>-76.544420612366906</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -11592,7 +12906,7 @@
         <v>-76.537184300000007</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -11603,7 +12917,7 @@
         <v>-76.520149717530202</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -11614,7 +12928,7 @@
         <v>-76.528202602628696</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -11625,7 +12939,7 @@
         <v>-76.537967116378098</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -11636,7 +12950,7 @@
         <v>-76.534417529567094</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -11647,7 +12961,7 @@
         <v>-76.537122228819698</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -11658,7 +12972,7 @@
         <v>-76.524684211403695</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -11669,7 +12983,7 @@
         <v>-76.537184300000007</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -11680,7 +12994,7 @@
         <v>-76.537184300000007</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -11691,7 +13005,7 @@
         <v>-76.537184300000007</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -11702,7 +13016,7 @@
         <v>-76.537184300000007</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -11713,7 +13027,7 @@
         <v>-76.537184300000007</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
